--- a/StructureDefinition-Vaccine-Certificate-Practitioner.xlsx
+++ b/StructureDefinition-Vaccine-Certificate-Practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="293">
   <si>
     <t>Path</t>
   </si>
@@ -385,217 +385,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.use</t>
-  </si>
-  <si>
-    <t>official | passport</t>
-  </si>
-  <si>
-    <t>The purpose for this identifies.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -665,12 +454,34 @@
     <t>Practitioner.name.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Practitioner.name.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>Practitioner.name.use</t>
   </si>
   <si>
@@ -684,6 +495,9 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -823,6 +637,10 @@
     <t>Practitioner.name.period</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -839,6 +657,9 @@
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -876,6 +697,9 @@
 </t>
   </si>
   <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
+  </si>
+  <si>
     <t>Address(es) of the practitioner that are not role specific (typically home address).  Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
@@ -895,278 +719,13 @@
     <t>./Addresses</t>
   </si>
   <si>
-    <t>Practitioner.address.id</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Practitioner.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Practitioner.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>Practitioner.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Practitioner.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Practitioner.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Region</t>
-  </si>
-  <si>
-    <t>Practitioner.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>Practitioner.address.country</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>Practitioner.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
     <t>Practitioner.gender</t>
   </si>
   <si>
-    <t>male | female</t>
-  </si>
-  <si>
-    <t>Biological Gender.</t>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
@@ -1297,6 +856,10 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -1334,6 +897,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -1515,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1547,7 +1114,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.12109375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1559,8 +1126,8 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="53.22265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2691,13 +2258,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -2792,20 +2359,18 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2817,22 +2382,26 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N12" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="Q12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2876,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2891,21 +2460,21 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2913,31 +2482,35 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2985,28 +2558,28 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -3014,7 +2587,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3025,7 +2598,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3037,13 +2610,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3082,37 +2655,37 @@
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3121,45 +2694,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
       </c>
@@ -3183,49 +2754,49 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3234,9 +2805,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3244,34 +2815,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3296,13 +2867,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3320,7 +2891,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3335,13 +2906,13 @@
         <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3349,7 +2920,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3372,19 +2943,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3397,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -3433,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3448,35 +3019,35 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3488,13 +3059,13 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3508,7 +3079,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3544,7 +3115,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3559,13 +3130,13 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3573,18 +3144,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3596,15 +3167,17 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3653,13 +3226,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3668,13 +3241,13 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3682,7 +3255,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3693,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3705,17 +3278,15 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3764,13 +3335,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3779,13 +3350,13 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3793,7 +3364,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3804,7 +3375,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3816,76 +3387,70 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>192</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P21" t="s" s="2">
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3894,19 +3459,19 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>196</v>
       </c>
@@ -3916,13 +3481,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -3939,11 +3504,9 @@
       <c r="L22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3992,13 +3555,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -4032,7 +3595,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -4041,19 +3604,23 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4101,28 +3668,28 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4130,11 +3697,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4150,21 +3717,23 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4200,19 +3769,19 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4224,24 +3793,24 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4249,16 +3818,16 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>51</v>
@@ -4267,16 +3836,14 @@
         <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4301,13 +3868,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4325,7 +3892,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4340,21 +3907,21 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4362,13 +3929,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4377,19 +3944,17 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4438,7 +4003,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4453,13 +4018,13 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4467,18 +4032,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4487,21 +4052,21 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4549,13 +4114,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4564,13 +4129,13 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4578,11 +4143,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4598,20 +4163,18 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4660,7 +4223,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4675,13 +4238,13 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4689,7 +4252,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4700,7 +4263,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4709,16 +4272,16 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4769,28 +4332,28 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4798,11 +4361,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4818,18 +4381,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4878,7 +4443,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4890,13 +4455,13 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4907,30 +4472,30 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>258</v>
@@ -4938,9 +4503,11 @@
       <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4989,28 +4556,28 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -5018,7 +4585,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5038,22 +4605,20 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5102,7 +4667,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5117,21 +4682,21 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5142,32 +4707,28 @@
         <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5191,13 +4752,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5215,13 +4776,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5230,13 +4791,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5244,7 +4805,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5267,16 +4828,18 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5324,7 +4887,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5336,16 +4899,16 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5353,18 +4916,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5376,17 +4939,15 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5423,37 +4984,37 @@
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5464,7 +5025,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5475,31 +5036,31 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5512,7 +5073,7 @@
         <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>40</v>
@@ -5524,13 +5085,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5548,13 +5109,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5563,2343 +5124,20 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7909,7 +5147,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
